--- a/Datasets_Politik_v3_Anies.xlsx
+++ b/Datasets_Politik_v3_Anies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAABD5-C595-45E8-91DA-D1BE2039F35E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D54C9-5D48-46B1-9997-1B6B9D27627E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
